--- a/Paso/Hoja 1.xlsx
+++ b/Paso/Hoja 1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\LGFT\MIS PROYECTOS\RStudio\Git\Situacion-Covid19-por-Regiones-de-Chile\Paso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F4AFB1F-C1E7-477C-8F2A-8D9CEE58E573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2B1B3-2C45-4ECC-982D-27F9D47A1C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="355">
   <si>
     <t>COMUNA</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Cañete</t>
   </si>
   <si>
-    <t>Transición desde el sábado 10 de octubre a las 5:00 hrs.</t>
-  </si>
-  <si>
     <t>Carahue</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
     <t>Colina</t>
   </si>
   <si>
+    <t>Apertura inicial</t>
+  </si>
+  <si>
     <t>Collipulli</t>
   </si>
   <si>
@@ -367,9 +367,6 @@
     <t>Hualqui</t>
   </si>
   <si>
-    <t>Transición desde el martes 13 de octubre a las 5:00 hrs.</t>
-  </si>
-  <si>
     <t>Huara</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>Linares</t>
   </si>
   <si>
-    <t>Preparación desde el martes 13 de octubre a las 5:00 hrs.</t>
-  </si>
-  <si>
     <t>Litueche</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>Longaví</t>
   </si>
   <si>
-    <t xml:space="preserve">Zona urbana en cuarentena </t>
-  </si>
-  <si>
     <t>Lonquimay</t>
   </si>
   <si>
@@ -640,7 +631,7 @@
     <t>Padre Las Casas</t>
   </si>
   <si>
-    <t>Paiguano</t>
+    <t>Paihuano</t>
   </si>
   <si>
     <t>Paillaco</t>
@@ -1091,12 +1082,15 @@
   </si>
   <si>
     <t>Zapallar</t>
+  </si>
+  <si>
+    <t>Apertura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1574,8 +1568,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1930,17 +1925,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -1962,7 +1962,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -1973,18 +1973,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -1995,7 +1995,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -2017,29 +2017,29 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -2072,18 +2072,18 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
@@ -2094,7 +2094,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15">
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
@@ -2138,40 +2138,40 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
@@ -2182,29 +2182,29 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
@@ -2237,30 +2237,30 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2270,337 +2270,337 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B42">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>65</v>
       </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B61">
@@ -2611,18 +2611,18 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B63">
@@ -2633,18 +2633,18 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B65">
@@ -2655,7 +2655,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B66">
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B67">
@@ -2677,7 +2677,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B68">
@@ -2688,18 +2688,18 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B70">
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B71">
@@ -2721,7 +2721,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B72">
@@ -2732,7 +2732,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B73">
@@ -2743,7 +2743,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B74">
@@ -2754,18 +2754,18 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B76">
@@ -2776,7 +2776,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B77">
@@ -2787,7 +2787,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B78">
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B79">
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B80">
@@ -2820,18 +2820,18 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B82">
@@ -2842,7 +2842,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B83">
@@ -2853,7 +2853,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B84">
@@ -2864,7 +2864,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B85">
@@ -2875,18 +2875,18 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B87">
@@ -2897,7 +2897,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B88">
@@ -2908,7 +2908,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B89">
@@ -2919,51 +2919,51 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C93" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B94">
@@ -2974,7 +2974,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B95">
@@ -2985,7 +2985,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B96">
@@ -2996,7 +2996,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B97">
@@ -3007,7 +3007,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B98">
@@ -3018,18 +3018,18 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B100">
@@ -3040,29 +3040,29 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B103">
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B104">
@@ -3084,18 +3084,18 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B106">
@@ -3106,349 +3106,349 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C115" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>121</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B120">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B121">
-        <v>2</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B124">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B126">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B128">
-        <v>4</v>
-      </c>
-      <c r="C128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B130">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B131">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B132">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B133">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B134">
-        <v>2</v>
-      </c>
-      <c r="C134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B135">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B136">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>145</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3458,151 +3458,151 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B139">
-        <v>2</v>
-      </c>
-      <c r="C139" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B140">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B142">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B143">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B145">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-      <c r="C146" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B148">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>160</v>
-      </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>161</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3612,41 +3612,41 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>163</v>
-      </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>164</v>
-      </c>
-      <c r="B155">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>165</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3656,8 +3656,8 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>166</v>
+      <c r="A157" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -3667,19 +3667,19 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>167</v>
+      <c r="A158" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>168</v>
+      <c r="A159" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -3689,239 +3689,239 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B160">
-        <v>4</v>
-      </c>
-      <c r="C160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-      <c r="C161" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B162">
-        <v>2</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B163">
-        <v>4</v>
-      </c>
-      <c r="C163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B164">
-        <v>2</v>
-      </c>
-      <c r="C164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B165">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B166">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B167">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B168">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B169">
-        <v>4</v>
-      </c>
-      <c r="C169" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B170">
-        <v>2</v>
-      </c>
-      <c r="C170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B171">
-        <v>2</v>
-      </c>
-      <c r="C171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B172">
-        <v>2</v>
-      </c>
-      <c r="C172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B173">
-        <v>4</v>
-      </c>
-      <c r="C173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B174">
-        <v>2</v>
-      </c>
-      <c r="C174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-      <c r="C175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B176">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B177">
-        <v>3</v>
-      </c>
-      <c r="C177" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B178">
-        <v>3</v>
-      </c>
-      <c r="C178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>188</v>
-      </c>
-      <c r="B179">
-        <v>3</v>
-      </c>
-      <c r="C179" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>189</v>
-      </c>
-      <c r="B180">
-        <v>3</v>
-      </c>
-      <c r="C180" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>190</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3931,129 +3931,129 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B182">
-        <v>3</v>
-      </c>
-      <c r="C182" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B183">
-        <v>3</v>
-      </c>
-      <c r="C183" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B184">
-        <v>3</v>
-      </c>
-      <c r="C184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B185">
-        <v>3</v>
-      </c>
-      <c r="C185" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B186">
-        <v>2</v>
-      </c>
-      <c r="C186" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-      <c r="C187" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B188">
-        <v>3</v>
-      </c>
-      <c r="C188" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B189">
-        <v>4</v>
-      </c>
-      <c r="C189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B190">
-        <v>3</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191">
-        <v>3</v>
-      </c>
-      <c r="C191" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>201</v>
-      </c>
-      <c r="B192">
-        <v>3</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>202</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4063,294 +4063,294 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B194">
-        <v>2</v>
-      </c>
-      <c r="C194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B195">
-        <v>3</v>
-      </c>
-      <c r="C195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B196">
-        <v>2</v>
-      </c>
-      <c r="C196" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B197">
-        <v>3</v>
-      </c>
-      <c r="C197" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B198">
-        <v>2</v>
-      </c>
-      <c r="C198" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B199">
-        <v>2</v>
-      </c>
-      <c r="C199" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B200">
-        <v>3</v>
-      </c>
-      <c r="C200" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B201">
-        <v>3</v>
-      </c>
-      <c r="C201" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B202">
-        <v>2</v>
-      </c>
-      <c r="C202" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B203">
-        <v>3</v>
-      </c>
-      <c r="C203" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B204">
-        <v>3</v>
-      </c>
-      <c r="C204" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B205">
-        <v>3</v>
-      </c>
-      <c r="C205" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B206">
-        <v>3</v>
-      </c>
-      <c r="C206" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B207">
-        <v>3</v>
-      </c>
-      <c r="C207" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B208">
-        <v>3</v>
-      </c>
-      <c r="C208" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B209">
-        <v>3</v>
-      </c>
-      <c r="C209" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B210">
-        <v>3</v>
-      </c>
-      <c r="C210" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B211">
-        <v>3</v>
-      </c>
-      <c r="C211" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B213">
-        <v>2</v>
-      </c>
-      <c r="C213" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B214">
-        <v>3</v>
-      </c>
-      <c r="C214" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B215">
-        <v>3</v>
-      </c>
-      <c r="C215" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B216">
-        <v>4</v>
-      </c>
-      <c r="C216" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B217">
-        <v>3</v>
-      </c>
-      <c r="C217" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>227</v>
-      </c>
-      <c r="B218">
-        <v>3</v>
-      </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>228</v>
-      </c>
-      <c r="B219">
-        <v>3</v>
-      </c>
-      <c r="C219" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>229</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -4360,74 +4360,74 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B221">
-        <v>3</v>
-      </c>
-      <c r="C221" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B222">
-        <v>3</v>
-      </c>
-      <c r="C222" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B223">
-        <v>3</v>
-      </c>
-      <c r="C223" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B224">
-        <v>4</v>
-      </c>
-      <c r="C224" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>234</v>
-      </c>
-      <c r="B225">
-        <v>3</v>
-      </c>
-      <c r="C225" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>235</v>
-      </c>
-      <c r="B226">
-        <v>3</v>
-      </c>
-      <c r="C226" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>236</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4437,85 +4437,85 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B228">
-        <v>2</v>
-      </c>
-      <c r="C228" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B229">
-        <v>3</v>
-      </c>
-      <c r="C229" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B230">
-        <v>3</v>
-      </c>
-      <c r="C230" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B231">
-        <v>3</v>
-      </c>
-      <c r="C231" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B232">
-        <v>2</v>
-      </c>
-      <c r="C232" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>242</v>
-      </c>
-      <c r="B233">
-        <v>2</v>
-      </c>
-      <c r="C233" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>243</v>
-      </c>
-      <c r="B234">
-        <v>2</v>
-      </c>
-      <c r="C234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>244</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -4525,52 +4525,52 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B236">
-        <v>3</v>
-      </c>
-      <c r="C236" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B237">
-        <v>3</v>
-      </c>
-      <c r="C237" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>247</v>
-      </c>
-      <c r="B238">
-        <v>3</v>
-      </c>
-      <c r="C238" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>248</v>
-      </c>
-      <c r="B239">
-        <v>3</v>
-      </c>
-      <c r="C239" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>249</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4580,382 +4580,382 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B241">
-        <v>3</v>
-      </c>
-      <c r="C241" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B242">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B243">
-        <v>3</v>
-      </c>
-      <c r="C243" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B244">
-        <v>3</v>
-      </c>
-      <c r="C244" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B245">
-        <v>3</v>
-      </c>
-      <c r="C245" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B246">
-        <v>3</v>
-      </c>
-      <c r="C246" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B247">
-        <v>3</v>
-      </c>
-      <c r="C247" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B248">
-        <v>3</v>
-      </c>
-      <c r="C248" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B249">
-        <v>3</v>
-      </c>
-      <c r="C249" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B252">
+        <v>3</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B250">
-        <v>3</v>
-      </c>
-      <c r="C250" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B251">
-        <v>3</v>
-      </c>
-      <c r="C251" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B252">
-        <v>3</v>
-      </c>
-      <c r="C252" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B255">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B253">
-        <v>3</v>
-      </c>
-      <c r="C253" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B254">
-        <v>3</v>
-      </c>
-      <c r="C254" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B255">
-        <v>3</v>
-      </c>
-      <c r="C255" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="B258">
+        <v>3</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B256">
-        <v>3</v>
-      </c>
-      <c r="C256" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B257">
-        <v>3</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B258">
-        <v>3</v>
-      </c>
-      <c r="C258" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B259">
-        <v>3</v>
-      </c>
-      <c r="C259" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B260">
-        <v>3</v>
-      </c>
-      <c r="C260" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B261">
-        <v>2</v>
-      </c>
-      <c r="C261" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B262">
-        <v>3</v>
-      </c>
-      <c r="C262" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B263">
-        <v>3</v>
-      </c>
-      <c r="C263" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B264">
-        <v>3</v>
-      </c>
-      <c r="C264" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B265">
-        <v>2</v>
-      </c>
-      <c r="C265" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B266">
-        <v>2</v>
-      </c>
-      <c r="C266" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="B269">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B267">
-        <v>2</v>
-      </c>
-      <c r="C267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B268">
-        <v>3</v>
-      </c>
-      <c r="C268" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B269">
-        <v>3</v>
-      </c>
-      <c r="C269" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B272">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B270">
-        <v>3</v>
-      </c>
-      <c r="C270" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="B273">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B271">
-        <v>2</v>
-      </c>
-      <c r="C271" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B274">
+        <v>4</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B272">
-        <v>3</v>
-      </c>
-      <c r="C272" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>282</v>
-      </c>
-      <c r="B273">
-        <v>3</v>
-      </c>
-      <c r="C273" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>283</v>
-      </c>
-      <c r="B274">
-        <v>4</v>
-      </c>
-      <c r="C274" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>284</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -4965,8 +4965,8 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>285</v>
+      <c r="A276" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -4976,8 +4976,8 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>286</v>
+      <c r="A277" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -4987,8 +4987,8 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>287</v>
+      <c r="A278" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -4998,173 +4998,173 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B279">
-        <v>3</v>
-      </c>
-      <c r="C279" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B280">
-        <v>3</v>
-      </c>
-      <c r="C280" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B281">
-        <v>2</v>
-      </c>
-      <c r="C281" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B282">
-        <v>2</v>
-      </c>
-      <c r="C282" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B283">
-        <v>3</v>
-      </c>
-      <c r="C283" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B284">
-        <v>2</v>
-      </c>
-      <c r="C284" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B285">
-        <v>3</v>
-      </c>
-      <c r="C285" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B286">
-        <v>3</v>
-      </c>
-      <c r="C286" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B287">
-        <v>3</v>
-      </c>
-      <c r="C287" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B288">
-        <v>2</v>
-      </c>
-      <c r="C288" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B289">
-        <v>3</v>
-      </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B290">
-        <v>3</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B291">
-        <v>3</v>
-      </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>301</v>
-      </c>
-      <c r="B292">
-        <v>2</v>
-      </c>
-      <c r="C292" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>302</v>
-      </c>
-      <c r="B293">
-        <v>3</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>303</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5174,338 +5174,338 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B295">
-        <v>2</v>
-      </c>
-      <c r="C295" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B296">
-        <v>3</v>
-      </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B297">
-        <v>3</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B298">
-        <v>3</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B299">
-        <v>3</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B300">
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B316">
         <v>1</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C316" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>310</v>
-      </c>
-      <c r="B301">
-        <v>3</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>311</v>
-      </c>
-      <c r="B302">
-        <v>2</v>
-      </c>
-      <c r="C302" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>312</v>
-      </c>
-      <c r="B303">
-        <v>3</v>
-      </c>
-      <c r="C303" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>313</v>
-      </c>
-      <c r="B304">
-        <v>2</v>
-      </c>
-      <c r="C304" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>314</v>
-      </c>
-      <c r="B305">
-        <v>3</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>315</v>
-      </c>
-      <c r="B306">
-        <v>2</v>
-      </c>
-      <c r="C306" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>316</v>
-      </c>
-      <c r="B307">
-        <v>3</v>
-      </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>317</v>
-      </c>
-      <c r="B308">
-        <v>3</v>
-      </c>
-      <c r="C308" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>318</v>
-      </c>
-      <c r="B309">
-        <v>3</v>
-      </c>
-      <c r="C309" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>319</v>
-      </c>
-      <c r="B310">
-        <v>3</v>
-      </c>
-      <c r="C310" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>320</v>
-      </c>
-      <c r="B311">
-        <v>3</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>321</v>
-      </c>
-      <c r="B312">
-        <v>3</v>
-      </c>
-      <c r="C312" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>322</v>
-      </c>
-      <c r="B313">
-        <v>2</v>
-      </c>
-      <c r="C313" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-      <c r="C314" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B315">
-        <v>3</v>
-      </c>
-      <c r="C315" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B316">
-        <v>2</v>
-      </c>
-      <c r="C316" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B317">
-        <v>2</v>
-      </c>
-      <c r="C317" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="B320">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B318">
-        <v>1</v>
-      </c>
-      <c r="C318" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B319">
-        <v>2</v>
-      </c>
-      <c r="C319" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B320">
-        <v>3</v>
-      </c>
-      <c r="C320" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B321">
-        <v>3</v>
-      </c>
-      <c r="C321" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="B324">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B322">
-        <v>3</v>
-      </c>
-      <c r="C322" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>333</v>
-      </c>
-      <c r="B323">
-        <v>3</v>
-      </c>
-      <c r="C323" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>334</v>
-      </c>
-      <c r="B324">
-        <v>4</v>
-      </c>
-      <c r="C324" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>335</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -5515,162 +5515,162 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B326">
-        <v>3</v>
-      </c>
-      <c r="C326" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B327">
-        <v>4</v>
-      </c>
-      <c r="C327" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B328">
-        <v>4</v>
-      </c>
-      <c r="C328" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B329">
-        <v>3</v>
-      </c>
-      <c r="C329" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B330">
-        <v>3</v>
-      </c>
-      <c r="C330" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B331">
-        <v>2</v>
-      </c>
-      <c r="C331" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B332">
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B336">
+        <v>4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B337">
         <v>1</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C337" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>343</v>
-      </c>
-      <c r="B333">
-        <v>2</v>
-      </c>
-      <c r="C333" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>344</v>
-      </c>
-      <c r="B334">
-        <v>3</v>
-      </c>
-      <c r="C334" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B335">
-        <v>2</v>
-      </c>
-      <c r="C335" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B336">
-        <v>3</v>
-      </c>
-      <c r="C336" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B337">
-        <v>4</v>
-      </c>
-      <c r="C337" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>348</v>
-      </c>
-      <c r="B338">
-        <v>3</v>
-      </c>
-      <c r="C338" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>349</v>
-      </c>
-      <c r="B339">
-        <v>3</v>
-      </c>
-      <c r="C339" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>350</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -5680,63 +5680,63 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+      <c r="C342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B341">
-        <v>2</v>
-      </c>
-      <c r="C341" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B342">
-        <v>3</v>
-      </c>
-      <c r="C342" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B343">
-        <v>3</v>
-      </c>
-      <c r="C343" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>354</v>
-      </c>
-      <c r="B344">
-        <v>3</v>
-      </c>
-      <c r="C344" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>355</v>
-      </c>
-      <c r="B345">
-        <v>3</v>
-      </c>
-      <c r="C345" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>356</v>
       </c>
       <c r="B346">
         <v>3</v>

--- a/Paso/Hoja 1.xlsx
+++ b/Paso/Hoja 1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\LGFT\MIS PROYECTOS\RStudio\Git\Situacion-Covid19-por-Regiones-de-Chile\Paso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD2B1B3-2C45-4ECC-982D-27F9D47A1C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B77BB33-E45A-4503-AAAB-F8ADE4FD0108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="358">
   <si>
     <t>COMUNA</t>
   </si>
@@ -79,30 +79,33 @@
     <t>Arica</t>
   </si>
   <si>
+    <t>Buin</t>
+  </si>
+  <si>
+    <t>Apertura inicial desde el jueves 19 de noviembre a las 5:00 hrs.</t>
+  </si>
+  <si>
+    <t>Bulnes</t>
+  </si>
+  <si>
+    <t>Cabildo</t>
+  </si>
+  <si>
+    <t>Cabo de Hornos</t>
+  </si>
+  <si>
+    <t>Cabrero</t>
+  </si>
+  <si>
+    <t>Calama</t>
+  </si>
+  <si>
+    <t>Calbuco</t>
+  </si>
+  <si>
     <t>Cuarentena</t>
   </si>
   <si>
-    <t>Buin</t>
-  </si>
-  <si>
-    <t>Bulnes</t>
-  </si>
-  <si>
-    <t>Cabildo</t>
-  </si>
-  <si>
-    <t>Cabo de Hornos</t>
-  </si>
-  <si>
-    <t>Cabrero</t>
-  </si>
-  <si>
-    <t>Calama</t>
-  </si>
-  <si>
-    <t>Calbuco</t>
-  </si>
-  <si>
     <t>Caldera</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>Cerrillos</t>
   </si>
   <si>
+    <t>Apertura inicial</t>
+  </si>
+  <si>
     <t>Cerro Navia</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t>Coihueco</t>
   </si>
   <si>
+    <t>Preparación desde el jueves 19 de noviembre a las 5:00 hrs.</t>
+  </si>
+  <si>
     <t>Coinco</t>
   </si>
   <si>
@@ -217,9 +226,6 @@
     <t>Colina</t>
   </si>
   <si>
-    <t>Apertura inicial</t>
-  </si>
-  <si>
     <t>Collipulli</t>
   </si>
   <si>
@@ -274,6 +280,9 @@
     <t>Curanilahue</t>
   </si>
   <si>
+    <t xml:space="preserve">Transición </t>
+  </si>
+  <si>
     <t>Curarrehue</t>
   </si>
   <si>
@@ -724,6 +733,9 @@
     <t>Porvenir</t>
   </si>
   <si>
+    <t>Transición desde el jueves 19 de noviembre a las 5:00 hrs.</t>
+  </si>
+  <si>
     <t>Pozo Almonte</t>
   </si>
   <si>
@@ -982,9 +994,6 @@
     <t>Talca</t>
   </si>
   <si>
-    <t>Zona Urbana en transición</t>
-  </si>
-  <si>
     <t>Talcahuano</t>
   </si>
   <si>
@@ -1003,6 +1012,9 @@
     <t>Tierra Amarilla</t>
   </si>
   <si>
+    <t xml:space="preserve">Preparación </t>
+  </si>
+  <si>
     <t>Tiltil</t>
   </si>
   <si>
@@ -1018,7 +1030,7 @@
     <t>Toltén</t>
   </si>
   <si>
-    <t>Tome</t>
+    <t>Tomé</t>
   </si>
   <si>
     <t>Torres del Paine</t>
@@ -1082,15 +1094,12 @@
   </si>
   <si>
     <t>Zapallar</t>
-  </si>
-  <si>
-    <t>Apertura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1568,9 +1577,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1925,22 +1933,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1951,7 +1954,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -1962,7 +1965,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -1973,7 +1976,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -1984,7 +1987,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -1995,7 +1998,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -2006,7 +2009,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -2017,7 +2020,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
@@ -2028,7 +2031,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -2039,7 +2042,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -2050,18 +2053,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -2072,7 +2075,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -2083,29 +2086,29 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -2116,7 +2119,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17">
@@ -2127,7 +2130,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18">
@@ -2138,7 +2141,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19">
@@ -2149,7 +2152,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20">
@@ -2160,19 +2163,19 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
+      <c r="A22" t="s">
+        <v>28</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2182,8 +2185,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
+      <c r="A23" t="s">
+        <v>29</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2193,8 +2196,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
+      <c r="A24" t="s">
+        <v>30</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -2204,8 +2207,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>31</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -2215,8 +2218,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
+      <c r="A26" t="s">
+        <v>32</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -2226,8 +2229,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
+      <c r="A27" t="s">
+        <v>33</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -2237,8 +2240,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
+      <c r="A28" t="s">
+        <v>34</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2248,30 +2251,30 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
+      <c r="A29" t="s">
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
+      <c r="A30" t="s">
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
+      <c r="A31" t="s">
+        <v>37</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -2281,8 +2284,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
+      <c r="A32" t="s">
+        <v>38</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2292,8 +2295,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -2303,8 +2306,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
+      <c r="A34" t="s">
+        <v>40</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2314,8 +2317,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
+      <c r="A35" t="s">
+        <v>41</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2325,19 +2328,19 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
+      <c r="A36" t="s">
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
+      <c r="A37" t="s">
+        <v>44</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -2347,8 +2350,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
+      <c r="A38" t="s">
+        <v>45</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2358,8 +2361,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
+      <c r="A39" t="s">
+        <v>46</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -2369,8 +2372,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
+      <c r="A40" t="s">
+        <v>47</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2380,8 +2383,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
+      <c r="A41" t="s">
+        <v>48</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2391,8 +2394,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
+      <c r="A42" t="s">
+        <v>49</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2402,8 +2405,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
+      <c r="A43" t="s">
+        <v>50</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -2413,8 +2416,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
+      <c r="A44" t="s">
+        <v>51</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2424,8 +2427,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
+      <c r="A45" t="s">
+        <v>52</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2435,8 +2438,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
+      <c r="A46" t="s">
+        <v>53</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -2446,30 +2449,30 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
+      <c r="A47" t="s">
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
+      <c r="A48" t="s">
+        <v>55</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
+      <c r="A49" t="s">
+        <v>56</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2479,8 +2482,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
+      <c r="A50" t="s">
+        <v>57</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -2490,8 +2493,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
+      <c r="A51" t="s">
+        <v>58</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -2501,8 +2504,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
+      <c r="A52" t="s">
+        <v>59</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -2512,8 +2515,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
+      <c r="A53" t="s">
+        <v>60</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -2523,8 +2526,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
+      <c r="A54" t="s">
+        <v>61</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -2534,19 +2537,19 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
+      <c r="A55" t="s">
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
+      <c r="A56" t="s">
+        <v>64</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -2556,8 +2559,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
+      <c r="A57" t="s">
+        <v>65</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -2567,8 +2570,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
+      <c r="A58" t="s">
+        <v>66</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -2578,19 +2581,19 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
+      <c r="A59" t="s">
+        <v>67</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>66</v>
+      <c r="A60" t="s">
+        <v>68</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2600,8 +2603,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>67</v>
+      <c r="A61" t="s">
+        <v>69</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -2611,8 +2614,8 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
+      <c r="A62" t="s">
+        <v>70</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -2622,8 +2625,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>69</v>
+      <c r="A63" t="s">
+        <v>71</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -2633,8 +2636,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>70</v>
+      <c r="A64" t="s">
+        <v>72</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -2644,19 +2647,19 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>71</v>
+      <c r="A65" t="s">
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>72</v>
+      <c r="A66" t="s">
+        <v>74</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -2666,8 +2669,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>73</v>
+      <c r="A67" t="s">
+        <v>75</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -2677,19 +2680,19 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>74</v>
+      <c r="A68" t="s">
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>75</v>
+      <c r="A69" t="s">
+        <v>77</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -2699,41 +2702,41 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>76</v>
+      <c r="A70" t="s">
+        <v>78</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>77</v>
+      <c r="A71" t="s">
+        <v>79</v>
       </c>
       <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
         <v>2</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>79</v>
+      <c r="A73" t="s">
+        <v>81</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2743,30 +2746,30 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>80</v>
+      <c r="A74" t="s">
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>81</v>
+      <c r="A75" t="s">
+        <v>83</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>82</v>
+      <c r="A76" t="s">
+        <v>84</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2776,19 +2779,19 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>83</v>
+      <c r="A77" t="s">
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>84</v>
+      <c r="A78" t="s">
+        <v>87</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -2798,8 +2801,8 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>85</v>
+      <c r="A79" t="s">
+        <v>88</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -2809,19 +2812,19 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>86</v>
+      <c r="A80" t="s">
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>87</v>
+      <c r="A81" t="s">
+        <v>90</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2831,8 +2834,8 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>88</v>
+      <c r="A82" t="s">
+        <v>91</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -2842,8 +2845,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>89</v>
+      <c r="A83" t="s">
+        <v>92</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -2853,8 +2856,8 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>90</v>
+      <c r="A84" t="s">
+        <v>93</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2864,8 +2867,8 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>91</v>
+      <c r="A85" t="s">
+        <v>94</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -2875,19 +2878,19 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>92</v>
+      <c r="A86" t="s">
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>93</v>
+      <c r="A87" t="s">
+        <v>96</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -2897,8 +2900,8 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>94</v>
+      <c r="A88" t="s">
+        <v>97</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -2908,8 +2911,8 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>95</v>
+      <c r="A89" t="s">
+        <v>98</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -2919,30 +2922,30 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>96</v>
+      <c r="A90" t="s">
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>97</v>
+      <c r="A91" t="s">
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>98</v>
+      <c r="A92" t="s">
+        <v>101</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2952,19 +2955,19 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>99</v>
+      <c r="A93" t="s">
+        <v>102</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>100</v>
+      <c r="A94" t="s">
+        <v>103</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2974,63 +2977,63 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>101</v>
+      <c r="A95" t="s">
+        <v>104</v>
       </c>
       <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98">
         <v>1</v>
       </c>
-      <c r="C95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>105</v>
+      <c r="A99" t="s">
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>106</v>
+      <c r="A100" t="s">
+        <v>109</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -3040,8 +3043,8 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>107</v>
+      <c r="A101" t="s">
+        <v>110</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -3051,8 +3054,8 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>108</v>
+      <c r="A102" t="s">
+        <v>111</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -3062,8 +3065,8 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>109</v>
+      <c r="A103" t="s">
+        <v>112</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -3073,8 +3076,8 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>110</v>
+      <c r="A104" t="s">
+        <v>113</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -3084,19 +3087,19 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>111</v>
+      <c r="A105" t="s">
+        <v>114</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>112</v>
+      <c r="A106" t="s">
+        <v>115</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -3106,8 +3109,8 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>113</v>
+      <c r="A107" t="s">
+        <v>116</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -3117,8 +3120,8 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>114</v>
+      <c r="A108" t="s">
+        <v>117</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -3128,8 +3131,8 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>115</v>
+      <c r="A109" t="s">
+        <v>118</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -3139,8 +3142,8 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>116</v>
+      <c r="A110" t="s">
+        <v>119</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -3150,8 +3153,8 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>117</v>
+      <c r="A111" t="s">
+        <v>120</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -3161,8 +3164,8 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>118</v>
+      <c r="A112" t="s">
+        <v>121</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -3172,19 +3175,19 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>119</v>
+      <c r="A113" t="s">
+        <v>122</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>120</v>
+      <c r="A114" t="s">
+        <v>123</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3194,19 +3197,19 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>121</v>
+      <c r="A115" t="s">
+        <v>124</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>122</v>
+      <c r="A116" t="s">
+        <v>125</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -3216,8 +3219,8 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>123</v>
+      <c r="A117" t="s">
+        <v>126</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -3227,19 +3230,19 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>124</v>
+      <c r="A118" t="s">
+        <v>127</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>125</v>
+      <c r="A119" t="s">
+        <v>128</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -3249,8 +3252,8 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>126</v>
+      <c r="A120" t="s">
+        <v>129</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -3260,8 +3263,8 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>127</v>
+      <c r="A121" t="s">
+        <v>130</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -3271,19 +3274,19 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>128</v>
+      <c r="A122" t="s">
+        <v>131</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>129</v>
+      <c r="A123" t="s">
+        <v>132</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -3293,8 +3296,8 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>130</v>
+      <c r="A124" t="s">
+        <v>133</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -3304,30 +3307,30 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>131</v>
+      <c r="A125" t="s">
+        <v>134</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>132</v>
+      <c r="A126" t="s">
+        <v>135</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>133</v>
+      <c r="A127" t="s">
+        <v>136</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -3337,30 +3340,30 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>134</v>
+      <c r="A128" t="s">
+        <v>137</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>135</v>
+      <c r="A129" t="s">
+        <v>138</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>136</v>
+      <c r="A130" t="s">
+        <v>139</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -3370,8 +3373,8 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>137</v>
+      <c r="A131" t="s">
+        <v>140</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -3381,19 +3384,19 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>138</v>
+      <c r="A132" t="s">
+        <v>141</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>139</v>
+      <c r="A133" t="s">
+        <v>142</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -3403,8 +3406,8 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>140</v>
+      <c r="A134" t="s">
+        <v>143</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3414,8 +3417,8 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>141</v>
+      <c r="A135" t="s">
+        <v>144</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -3425,239 +3428,239 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>142</v>
+      <c r="A136" t="s">
+        <v>145</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>143</v>
+      <c r="A137" t="s">
+        <v>146</v>
       </c>
       <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138">
         <v>2</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B138">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>162</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155">
         <v>1</v>
       </c>
-      <c r="C138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B140">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B142">
-        <v>3</v>
-      </c>
-      <c r="C142" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143">
-        <v>3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B145">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B146">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B148">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B150">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B151">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>162</v>
+      <c r="A156" t="s">
+        <v>165</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>163</v>
+      <c r="A157" t="s">
+        <v>166</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -3667,8 +3670,8 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>164</v>
+      <c r="A158" t="s">
+        <v>167</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -3678,19 +3681,19 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>165</v>
+      <c r="A159" t="s">
+        <v>168</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>166</v>
+      <c r="A160" t="s">
+        <v>169</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -3700,8 +3703,8 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>167</v>
+      <c r="A161" t="s">
+        <v>170</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -3711,19 +3714,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>168</v>
+      <c r="A162" t="s">
+        <v>171</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>169</v>
+      <c r="A163" t="s">
+        <v>172</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -3733,19 +3736,19 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>170</v>
+      <c r="A164" t="s">
+        <v>173</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>171</v>
+      <c r="A165" t="s">
+        <v>174</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3755,8 +3758,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>172</v>
+      <c r="A166" t="s">
+        <v>175</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3766,8 +3769,8 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>173</v>
+      <c r="A167" t="s">
+        <v>176</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3777,41 +3780,41 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>174</v>
+      <c r="A168" t="s">
+        <v>177</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>175</v>
+      <c r="A169" t="s">
+        <v>178</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>176</v>
+      <c r="A170" t="s">
+        <v>179</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>177</v>
+      <c r="A171" t="s">
+        <v>180</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3821,30 +3824,30 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>178</v>
+      <c r="A172" t="s">
+        <v>181</v>
       </c>
       <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173">
         <v>2</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B173">
-        <v>4</v>
-      </c>
-      <c r="C173" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>180</v>
+      <c r="A174" t="s">
+        <v>183</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -3854,8 +3857,8 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>181</v>
+      <c r="A175" t="s">
+        <v>184</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3865,8 +3868,8 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>182</v>
+      <c r="A176" t="s">
+        <v>185</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -3876,8 +3879,8 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>183</v>
+      <c r="A177" t="s">
+        <v>186</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -3887,8 +3890,8 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>184</v>
+      <c r="A178" t="s">
+        <v>187</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3898,19 +3901,19 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>185</v>
+      <c r="A179" t="s">
+        <v>188</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>186</v>
+      <c r="A180" t="s">
+        <v>189</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3920,19 +3923,19 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>187</v>
+      <c r="A181" t="s">
+        <v>190</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>188</v>
+      <c r="A182" t="s">
+        <v>191</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3942,8 +3945,8 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>189</v>
+      <c r="A183" t="s">
+        <v>192</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3953,8 +3956,8 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>190</v>
+      <c r="A184" t="s">
+        <v>193</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3964,8 +3967,8 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>191</v>
+      <c r="A185" t="s">
+        <v>194</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3975,8 +3978,8 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>192</v>
+      <c r="A186" t="s">
+        <v>195</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -3986,8 +3989,8 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>193</v>
+      <c r="A187" t="s">
+        <v>196</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3997,8 +4000,8 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>194</v>
+      <c r="A188" t="s">
+        <v>197</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -4008,8 +4011,8 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>195</v>
+      <c r="A189" t="s">
+        <v>198</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -4019,8 +4022,8 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>196</v>
+      <c r="A190" t="s">
+        <v>199</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -4030,8 +4033,8 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>197</v>
+      <c r="A191" t="s">
+        <v>200</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -4041,8 +4044,8 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>198</v>
+      <c r="A192" t="s">
+        <v>201</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -4052,19 +4055,19 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>199</v>
+      <c r="A193" t="s">
+        <v>202</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>200</v>
+      <c r="A194" t="s">
+        <v>203</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -4074,30 +4077,30 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>201</v>
+      <c r="A195" t="s">
+        <v>204</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>202</v>
+      <c r="A196" t="s">
+        <v>205</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>203</v>
+      <c r="A197" t="s">
+        <v>206</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -4107,8 +4110,8 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>204</v>
+      <c r="A198" t="s">
+        <v>207</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -4118,19 +4121,19 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>205</v>
+      <c r="A199" t="s">
+        <v>208</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>206</v>
+      <c r="A200" t="s">
+        <v>209</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -4140,8 +4143,8 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>207</v>
+      <c r="A201" t="s">
+        <v>210</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -4151,8 +4154,8 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>208</v>
+      <c r="A202" t="s">
+        <v>211</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -4162,8 +4165,8 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>209</v>
+      <c r="A203" t="s">
+        <v>212</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -4173,8 +4176,8 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>210</v>
+      <c r="A204" t="s">
+        <v>213</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -4184,8 +4187,8 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>211</v>
+      <c r="A205" t="s">
+        <v>214</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -4195,8 +4198,8 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>212</v>
+      <c r="A206" t="s">
+        <v>215</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -4206,8 +4209,8 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>213</v>
+      <c r="A207" t="s">
+        <v>216</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -4217,8 +4220,8 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>214</v>
+      <c r="A208" t="s">
+        <v>217</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -4228,8 +4231,8 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>215</v>
+      <c r="A209" t="s">
+        <v>218</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -4239,8 +4242,8 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>216</v>
+      <c r="A210" t="s">
+        <v>219</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -4250,8 +4253,8 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>217</v>
+      <c r="A211" t="s">
+        <v>220</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -4261,8 +4264,8 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>218</v>
+      <c r="A212" t="s">
+        <v>221</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -4272,19 +4275,19 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>219</v>
+      <c r="A213" t="s">
+        <v>222</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>220</v>
+      <c r="A214" t="s">
+        <v>223</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -4294,8 +4297,8 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>221</v>
+      <c r="A215" t="s">
+        <v>224</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -4305,8 +4308,8 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>222</v>
+      <c r="A216" t="s">
+        <v>225</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4316,8 +4319,8 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>223</v>
+      <c r="A217" t="s">
+        <v>226</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -4327,8 +4330,8 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>224</v>
+      <c r="A218" t="s">
+        <v>227</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -4338,8 +4341,8 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>225</v>
+      <c r="A219" t="s">
+        <v>228</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -4349,19 +4352,19 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>226</v>
+      <c r="A220" t="s">
+        <v>229</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>227</v>
+      <c r="A221" t="s">
+        <v>230</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -4371,8 +4374,8 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>228</v>
+      <c r="A222" t="s">
+        <v>231</v>
       </c>
       <c r="B222">
         <v>3</v>
@@ -4382,74 +4385,74 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>229</v>
+      <c r="A223" t="s">
+        <v>232</v>
       </c>
       <c r="B223">
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>230</v>
+      <c r="A224" t="s">
+        <v>233</v>
       </c>
       <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>234</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>235</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>236</v>
+      </c>
+      <c r="B227">
         <v>2</v>
       </c>
-      <c r="C224" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B225">
-        <v>3</v>
-      </c>
-      <c r="C225" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B226">
-        <v>3</v>
-      </c>
-      <c r="C226" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>234</v>
+      <c r="A228" t="s">
+        <v>238</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>235</v>
+      <c r="A229" t="s">
+        <v>239</v>
       </c>
       <c r="B229">
         <v>3</v>
@@ -4459,19 +4462,19 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>236</v>
+      <c r="A230" t="s">
+        <v>240</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>237</v>
+      <c r="A231" t="s">
+        <v>241</v>
       </c>
       <c r="B231">
         <v>3</v>
@@ -4481,52 +4484,52 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>238</v>
+      <c r="A232" t="s">
+        <v>242</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>239</v>
+      <c r="A233" t="s">
+        <v>243</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>240</v>
+      <c r="A234" t="s">
+        <v>244</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>241</v>
+      <c r="A235" t="s">
+        <v>245</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>242</v>
+      <c r="A236" t="s">
+        <v>246</v>
       </c>
       <c r="B236">
         <v>3</v>
@@ -4536,8 +4539,8 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>243</v>
+      <c r="A237" t="s">
+        <v>247</v>
       </c>
       <c r="B237">
         <v>3</v>
@@ -4547,8 +4550,8 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>244</v>
+      <c r="A238" t="s">
+        <v>248</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -4558,8 +4561,8 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>245</v>
+      <c r="A239" t="s">
+        <v>249</v>
       </c>
       <c r="B239">
         <v>4</v>
@@ -4569,30 +4572,30 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>246</v>
+      <c r="A240" t="s">
+        <v>250</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>247</v>
+      <c r="A241" t="s">
+        <v>251</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>248</v>
+      <c r="A242" t="s">
+        <v>252</v>
       </c>
       <c r="B242">
         <v>4</v>
@@ -4602,19 +4605,19 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>249</v>
+      <c r="A243" t="s">
+        <v>253</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>250</v>
+      <c r="A244" t="s">
+        <v>254</v>
       </c>
       <c r="B244">
         <v>3</v>
@@ -4624,8 +4627,8 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>251</v>
+      <c r="A245" t="s">
+        <v>255</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -4635,8 +4638,8 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>252</v>
+      <c r="A246" t="s">
+        <v>256</v>
       </c>
       <c r="B246">
         <v>3</v>
@@ -4646,8 +4649,8 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>253</v>
+      <c r="A247" t="s">
+        <v>257</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -4657,19 +4660,19 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>254</v>
+      <c r="A248" t="s">
+        <v>258</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>255</v>
+      <c r="A249" t="s">
+        <v>259</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -4679,8 +4682,8 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>256</v>
+      <c r="A250" t="s">
+        <v>260</v>
       </c>
       <c r="B250">
         <v>3</v>
@@ -4690,19 +4693,19 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>257</v>
+      <c r="A251" t="s">
+        <v>261</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>258</v>
+      <c r="A252" t="s">
+        <v>262</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -4712,8 +4715,8 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>259</v>
+      <c r="A253" t="s">
+        <v>263</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -4723,8 +4726,8 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>260</v>
+      <c r="A254" t="s">
+        <v>264</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -4734,8 +4737,8 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>261</v>
+      <c r="A255" t="s">
+        <v>265</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -4745,8 +4748,8 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>262</v>
+      <c r="A256" t="s">
+        <v>266</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4756,8 +4759,8 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>263</v>
+      <c r="A257" t="s">
+        <v>267</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -4767,8 +4770,8 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>264</v>
+      <c r="A258" t="s">
+        <v>268</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -4778,8 +4781,8 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>265</v>
+      <c r="A259" t="s">
+        <v>269</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -4789,8 +4792,8 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>266</v>
+      <c r="A260" t="s">
+        <v>270</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -4800,8 +4803,8 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>267</v>
+      <c r="A261" t="s">
+        <v>271</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -4811,8 +4814,8 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>268</v>
+      <c r="A262" t="s">
+        <v>272</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -4822,8 +4825,8 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>269</v>
+      <c r="A263" t="s">
+        <v>273</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -4833,52 +4836,52 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>270</v>
+      <c r="A264" t="s">
+        <v>274</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>271</v>
+      <c r="A265" t="s">
+        <v>275</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>272</v>
+      <c r="A266" t="s">
+        <v>276</v>
       </c>
       <c r="B266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>273</v>
+      <c r="A267" t="s">
+        <v>277</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>274</v>
+      <c r="A268" t="s">
+        <v>278</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -4888,8 +4891,8 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>275</v>
+      <c r="A269" t="s">
+        <v>279</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -4899,8 +4902,8 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>276</v>
+      <c r="A270" t="s">
+        <v>280</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -4910,8 +4913,8 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>277</v>
+      <c r="A271" t="s">
+        <v>281</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -4921,8 +4924,8 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>278</v>
+      <c r="A272" t="s">
+        <v>282</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -4932,8 +4935,8 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>279</v>
+      <c r="A273" t="s">
+        <v>283</v>
       </c>
       <c r="B273">
         <v>4</v>
@@ -4943,8 +4946,8 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>280</v>
+      <c r="A274" t="s">
+        <v>284</v>
       </c>
       <c r="B274">
         <v>4</v>
@@ -4954,19 +4957,19 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>281</v>
+      <c r="A275" t="s">
+        <v>285</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>282</v>
+      <c r="A276" t="s">
+        <v>286</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -4976,8 +4979,8 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>283</v>
+      <c r="A277" t="s">
+        <v>287</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -4987,19 +4990,19 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>284</v>
+      <c r="A278" t="s">
+        <v>288</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>285</v>
+      <c r="A279" t="s">
+        <v>289</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -5009,8 +5012,8 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>286</v>
+      <c r="A280" t="s">
+        <v>290</v>
       </c>
       <c r="B280">
         <v>4</v>
@@ -5020,8 +5023,8 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>287</v>
+      <c r="A281" t="s">
+        <v>291</v>
       </c>
       <c r="B281">
         <v>3</v>
@@ -5031,19 +5034,19 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>288</v>
+      <c r="A282" t="s">
+        <v>292</v>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>289</v>
+      <c r="A283" t="s">
+        <v>293</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -5053,8 +5056,8 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>290</v>
+      <c r="A284" t="s">
+        <v>294</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -5064,8 +5067,8 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>291</v>
+      <c r="A285" t="s">
+        <v>295</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -5075,8 +5078,8 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>292</v>
+      <c r="A286" t="s">
+        <v>296</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -5086,8 +5089,8 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>293</v>
+      <c r="A287" t="s">
+        <v>297</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -5097,19 +5100,19 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>294</v>
+      <c r="A288" t="s">
+        <v>298</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>295</v>
+      <c r="A289" t="s">
+        <v>299</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -5119,8 +5122,8 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>296</v>
+      <c r="A290" t="s">
+        <v>300</v>
       </c>
       <c r="B290">
         <v>3</v>
@@ -5130,8 +5133,8 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>297</v>
+      <c r="A291" t="s">
+        <v>301</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -5141,8 +5144,8 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>298</v>
+      <c r="A292" t="s">
+        <v>302</v>
       </c>
       <c r="B292">
         <v>3</v>
@@ -5152,41 +5155,41 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>299</v>
+      <c r="A293" t="s">
+        <v>303</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>300</v>
+      <c r="A294" t="s">
+        <v>304</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>301</v>
+      <c r="A295" t="s">
+        <v>305</v>
       </c>
       <c r="B295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>302</v>
+      <c r="A296" t="s">
+        <v>306</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -5196,8 +5199,8 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>303</v>
+      <c r="A297" t="s">
+        <v>307</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -5207,19 +5210,19 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>304</v>
+      <c r="A298" t="s">
+        <v>308</v>
       </c>
       <c r="B298">
         <v>4</v>
       </c>
       <c r="C298" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>305</v>
+      <c r="A299" t="s">
+        <v>309</v>
       </c>
       <c r="B299">
         <v>3</v>
@@ -5229,8 +5232,8 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>306</v>
+      <c r="A300" t="s">
+        <v>310</v>
       </c>
       <c r="B300">
         <v>2</v>
@@ -5240,8 +5243,8 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>307</v>
+      <c r="A301" t="s">
+        <v>311</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -5251,74 +5254,74 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>308</v>
+      <c r="A302" t="s">
+        <v>312</v>
       </c>
       <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>313</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>314</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>315</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>316</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>317</v>
+      </c>
+      <c r="B307">
         <v>2</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C307" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B303">
-        <v>2</v>
-      </c>
-      <c r="C303" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B304">
-        <v>2</v>
-      </c>
-      <c r="C304" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B305">
-        <v>3</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B306">
-        <v>3</v>
-      </c>
-      <c r="C306" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B307">
-        <v>3</v>
-      </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>314</v>
+      <c r="A308" t="s">
+        <v>318</v>
       </c>
       <c r="B308">
         <v>3</v>
@@ -5328,19 +5331,19 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>315</v>
+      <c r="A309" t="s">
+        <v>319</v>
       </c>
       <c r="B309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>316</v>
+      <c r="A310" t="s">
+        <v>320</v>
       </c>
       <c r="B310">
         <v>3</v>
@@ -5350,8 +5353,8 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>317</v>
+      <c r="A311" t="s">
+        <v>321</v>
       </c>
       <c r="B311">
         <v>3</v>
@@ -5361,8 +5364,8 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>318</v>
+      <c r="A312" t="s">
+        <v>322</v>
       </c>
       <c r="B312">
         <v>3</v>
@@ -5372,19 +5375,19 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>319</v>
+      <c r="A313" t="s">
+        <v>323</v>
       </c>
       <c r="B313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C313" t="s">
-        <v>320</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>321</v>
+      <c r="A314" t="s">
+        <v>324</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -5394,8 +5397,8 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>322</v>
+      <c r="A315" t="s">
+        <v>325</v>
       </c>
       <c r="B315">
         <v>3</v>
@@ -5405,19 +5408,19 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>323</v>
+      <c r="A316" t="s">
+        <v>326</v>
       </c>
       <c r="B316">
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>324</v>
+      <c r="A317" t="s">
+        <v>327</v>
       </c>
       <c r="B317">
         <v>3</v>
@@ -5427,129 +5430,129 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>325</v>
+      <c r="A318" t="s">
+        <v>328</v>
       </c>
       <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>329</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>331</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>332</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>333</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>334</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>335</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>336</v>
+      </c>
+      <c r="B325">
         <v>2</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C325" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B319">
-        <v>2</v>
-      </c>
-      <c r="C319" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B320">
-        <v>4</v>
-      </c>
-      <c r="C320" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B321">
-        <v>3</v>
-      </c>
-      <c r="C321" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B322">
-        <v>3</v>
-      </c>
-      <c r="C322" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B323">
-        <v>3</v>
-      </c>
-      <c r="C323" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B324">
-        <v>4</v>
-      </c>
-      <c r="C324" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B325">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>337</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>338</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>339</v>
+      </c>
+      <c r="B328">
         <v>1</v>
       </c>
-      <c r="C325" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B326">
-        <v>3</v>
-      </c>
-      <c r="C326" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B327">
-        <v>4</v>
-      </c>
-      <c r="C327" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B328">
-        <v>4</v>
-      </c>
       <c r="C328" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>336</v>
+      <c r="A329" t="s">
+        <v>340</v>
       </c>
       <c r="B329">
         <v>3</v>
@@ -5559,8 +5562,8 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>337</v>
+      <c r="A330" t="s">
+        <v>341</v>
       </c>
       <c r="B330">
         <v>3</v>
@@ -5570,41 +5573,41 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>338</v>
+      <c r="A331" t="s">
+        <v>342</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>339</v>
+      <c r="A332" t="s">
+        <v>343</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>340</v>
+      <c r="A333" t="s">
+        <v>344</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C333" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>341</v>
+      <c r="A334" t="s">
+        <v>345</v>
       </c>
       <c r="B334">
         <v>3</v>
@@ -5614,8 +5617,8 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>342</v>
+      <c r="A335" t="s">
+        <v>346</v>
       </c>
       <c r="B335">
         <v>2</v>
@@ -5625,30 +5628,30 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>343</v>
+      <c r="A336" t="s">
+        <v>347</v>
       </c>
       <c r="B336">
         <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>354</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>344</v>
+      <c r="A337" t="s">
+        <v>348</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>345</v>
+      <c r="A338" t="s">
+        <v>349</v>
       </c>
       <c r="B338">
         <v>3</v>
@@ -5658,8 +5661,8 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>346</v>
+      <c r="A339" t="s">
+        <v>350</v>
       </c>
       <c r="B339">
         <v>3</v>
@@ -5669,30 +5672,30 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>347</v>
+      <c r="A340" t="s">
+        <v>351</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C340" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>348</v>
+      <c r="A341" t="s">
+        <v>352</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>349</v>
+      <c r="A342" t="s">
+        <v>353</v>
       </c>
       <c r="B342">
         <v>4</v>
@@ -5702,8 +5705,8 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>350</v>
+      <c r="A343" t="s">
+        <v>354</v>
       </c>
       <c r="B343">
         <v>3</v>
@@ -5713,8 +5716,8 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>351</v>
+      <c r="A344" t="s">
+        <v>355</v>
       </c>
       <c r="B344">
         <v>2</v>
@@ -5724,8 +5727,8 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>352</v>
+      <c r="A345" t="s">
+        <v>356</v>
       </c>
       <c r="B345">
         <v>3</v>
@@ -5735,8 +5738,8 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>353</v>
+      <c r="A346" t="s">
+        <v>357</v>
       </c>
       <c r="B346">
         <v>3</v>
